--- a/excel/ingredient2018118.xlsx
+++ b/excel/ingredient2018118.xlsx
@@ -86,7 +86,7 @@
     <t>新加南食品行</t>
   </si>
   <si>
-    <t>25.8斤</t>
+    <t>15.0</t>
   </si>
   <si>
     <t>Y</t>
@@ -101,19 +101,19 @@
     <t>豬肉丁</t>
   </si>
   <si>
-    <t>9斤</t>
+    <t>5.3999999999999995</t>
   </si>
   <si>
     <t>豆輪</t>
   </si>
   <si>
-    <t>3斤</t>
+    <t>1.7999999999999998</t>
   </si>
   <si>
     <t>紅蘿蔔</t>
   </si>
   <si>
-    <t>2斤</t>
+    <t>1.2</t>
   </si>
   <si>
     <t>蛤蠣燴絲瓜</t>
@@ -125,7 +125,7 @@
     <t>絲瓜</t>
   </si>
   <si>
-    <t>8斤</t>
+    <t>4.8</t>
   </si>
   <si>
     <t>炒高麗菜</t>
